--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P21_trail9 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P21_trail9 Features.xlsx
@@ -3533,7 +3533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3544,29 +3544,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="18" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="21" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3587,115 +3585,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3712,72 +3700,66 @@
         <v>2.018958626603104e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-3.55520850833419</v>
+        <v>1.284992478646672e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>13.08736201906243</v>
+        <v>3.854556946508102e-07</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.284992478646672e-07</v>
+        <v>0.1058585735062363</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.854556946508102e-07</v>
+        <v>0.2919675806984287</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.1058585735062363</v>
+        <v>0.09622718831964915</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2919675806984287</v>
+        <v>1.924873269157776</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.09622718831964915</v>
+        <v>3.701335754311773</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.954889726641853</v>
+        <v>8.620310358842236</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>3.701335754311773</v>
+        <v>1.745644924864276e-19</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>8.620310358842236</v>
+        <v>187686587522.6519</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.745644924864276e-19</v>
+        <v>6.389045538924108e-10</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>187686587522.6519</v>
+        <v>6149.253349995462</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>6.389045538924108e-10</v>
+        <v>1.968100575756265e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>6149.253349995462</v>
+        <v>7.418501454315588</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>1.968100575756265e-05</v>
+        <v>1.805764951890224</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.418501454315588</v>
+        <v>0.001083127695155266</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.805764951890224</v>
+        <v>7.503433616026401</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.001083127695155266</v>
+        <v>0.9596008973042104</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>7.503433616026401</v>
+        <v>0.8427670204734059</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9596008973042104</v>
+        <v>460</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.8427670204734059</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>460</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>12.08317925387642</v>
       </c>
     </row>
@@ -3792,72 +3774,66 @@
         <v>1.512772914224608e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-3.500603926560272</v>
+        <v>9.586104294021301e-08</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>12.72174068383289</v>
+        <v>3.873037418275531e-07</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>9.586104294021301e-08</v>
+        <v>0.1051472795857164</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.873037418275531e-07</v>
+        <v>0.2869855015379789</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.1051472795857164</v>
+        <v>0.09319821540635126</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2869855015379789</v>
+        <v>1.929943693432471</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.09319821540635126</v>
+        <v>3.455366178234221</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.957449184517595</v>
+        <v>8.712540040872391</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>3.455366178234221</v>
+        <v>1.708882255688855e-19</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>8.712540040872391</v>
+        <v>192604564139.7557</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.708882255688855e-19</v>
+        <v>6.227337458918152e-10</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>192604564139.7557</v>
+        <v>6339.358157586534</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>6.227337458918152e-10</v>
+        <v>2.065745150332001e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>6339.358157586534</v>
+        <v>8.491263813196973</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>2.065745150332001e-05</v>
+        <v>1.618599518429065</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.491263813196973</v>
+        <v>0.001489434502672871</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.618599518429065</v>
+        <v>7.547335763244557</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.001489434502672871</v>
+        <v>0.9604411454438928</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>7.547335763244557</v>
+        <v>0.8467435085903591</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9604411454438928</v>
+        <v>463</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.8467435085903591</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>463</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>12.50860259936674</v>
       </c>
     </row>
@@ -3872,72 +3848,66 @@
         <v>1.140055406542353e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-3.430316188069536</v>
+        <v>7.191971137371118e-08</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>12.28918428567115</v>
+        <v>3.886819655671756e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>7.191971137371118e-08</v>
+        <v>0.1043012702928017</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.886819655671756e-07</v>
+        <v>0.2816830644985897</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.1043012702928017</v>
+        <v>0.09001660285510032</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2816830644985897</v>
+        <v>1.932198945841722</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.09001660285510032</v>
+        <v>3.903120859021735</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.957070936666289</v>
+        <v>8.88034487799418</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>3.903120859021735</v>
+        <v>1.644909654064249e-19</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>8.88034487799418</v>
+        <v>199997138980.0219</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.644909654064249e-19</v>
+        <v>6.008601864784563e-10</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>199997138980.0219</v>
+        <v>6579.450372828132</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>6.008601864784563e-10</v>
+        <v>1.777027946658085e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>6579.450372828132</v>
+        <v>8.135185241482185</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>1.777027946658085e-05</v>
+        <v>1.605350587591946</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.135185241482185</v>
+        <v>0.001176059110932644</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.605350587591946</v>
+        <v>7.691149777732556</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.001176059110932644</v>
+        <v>0.9622495637851336</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>7.691149777732556</v>
+        <v>0.8597046884050662</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9622495637851336</v>
+        <v>474</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.8597046884050662</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>474</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>13.42260696653117</v>
       </c>
     </row>
@@ -3952,72 +3922,66 @@
         <v>8.647271184587756e-09</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-3.332580981070092</v>
+        <v>5.428968822582944e-08</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>11.72973638308415</v>
+        <v>3.89714649148317e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>5.428968822582944e-08</v>
+        <v>0.1032953211562829</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.89714649148317e-07</v>
+        <v>0.2760194759173188</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.1032953211562829</v>
+        <v>0.08665996429498145</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2760194759173188</v>
+        <v>1.932259861051994</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.08665996429498145</v>
+        <v>3.43593019924855</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.954161976529587</v>
+        <v>9.390076821207064</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>3.43593019924855</v>
+        <v>1.858541732184701e-19</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>9.390076821207064</v>
+        <v>180608299552.5389</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.858541732184701e-19</v>
+        <v>6.677871018195509e-10</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>180608299552.5389</v>
+        <v>6062.443787336937</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>6.677871018195509e-10</v>
+        <v>1.410685139016725e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>6062.443787336937</v>
+        <v>8.03600180546519</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>1.410685139016725e-05</v>
+        <v>1.708293273880653</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.03600180546519</v>
+        <v>0.000910982727195553</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.708293273880653</v>
+        <v>7.932699292062038</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.000910982727195553</v>
+        <v>0.9628892767921542</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>7.932699292062038</v>
+        <v>0.8275690048711416</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9628892767921542</v>
+        <v>467</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.8275690048711416</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>467</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>14.65130850365903</v>
       </c>
     </row>
@@ -4032,72 +3996,66 @@
         <v>6.610057745798728e-09</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-3.188758544026737</v>
+        <v>4.122531795903904e-08</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>10.93472941119324</v>
+        <v>3.904922279385482e-07</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4.122531795903904e-08</v>
+        <v>0.1020038858002222</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.904922279385482e-07</v>
+        <v>0.2692811765475668</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.1020038858002222</v>
+        <v>0.08273089810257862</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2692811765475668</v>
+        <v>1.932515209097325</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.08273089810257862</v>
+        <v>3.530005164565647</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.953951907465034</v>
+        <v>8.812336197271078</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>3.530005164565647</v>
+        <v>2.110223683790226e-19</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>8.812336197271078</v>
+        <v>168485398016.0469</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.110223683790226e-19</v>
+        <v>7.19228720191456e-10</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>168485398016.0469</v>
+        <v>5990.361470258251</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>7.19228720191456e-10</v>
+        <v>1.122983103045799e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>5990.361470258251</v>
+        <v>8.561534225047417</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>1.122983103045799e-05</v>
+        <v>1.759860612681596</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.561534225047417</v>
+        <v>0.0008231451354139983</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.759860612681596</v>
+        <v>8.123267664685809</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.0008231451354139983</v>
+        <v>0.962452378256596</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>8.123267664685809</v>
+        <v>0.8244819758381754</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.962452378256596</v>
+        <v>455</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.8244819758381754</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>455</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>15.89646543107084</v>
       </c>
     </row>
@@ -4112,72 +4070,66 @@
         <v>5.106147880769016e-09</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-2.97653086283144</v>
+        <v>3.147060168593275e-08</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>9.765031803559793</v>
+        <v>3.910804089556171e-07</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3.147060168593275e-08</v>
+        <v>0.1001056587960207</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.910804089556171e-07</v>
+        <v>0.2599059359303323</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.1001056587960207</v>
+        <v>0.07739647104080376</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2599059359303323</v>
+        <v>1.927947062867155</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.07739647104080376</v>
+        <v>3.218188990434271</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.948945787343504</v>
+        <v>8.569803027300614</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>3.218188990434271</v>
+        <v>2.231356323177526e-19</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>8.569803027300614</v>
+        <v>159933309950.3866</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.231356323177526e-19</v>
+        <v>7.575210849849339e-10</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>159933309950.3866</v>
+        <v>5707.511283299452</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>7.575210849849339e-10</v>
+        <v>8.87961099453306e-06</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>5707.511283299452</v>
+        <v>8.543975008609021</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>8.87961099453306e-06</v>
+        <v>1.73635657438231</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.543975008609021</v>
+        <v>0.0006482072422478269</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.73635657438231</v>
+        <v>8.219020035992827</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.0006482072422478269</v>
+        <v>0.9627611887765627</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>8.219020035992827</v>
+        <v>0.8582327628181717</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9627611887765627</v>
+        <v>449</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.8582327628181717</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>449</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>16.45377063289137</v>
       </c>
     </row>
@@ -4554,7 +4506,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.41294273605618</v>
+        <v>1.413667492272756</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.681341371832576</v>
@@ -4643,7 +4595,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.414410539172899</v>
+        <v>1.409207153484485</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.558675909879155</v>
@@ -4732,7 +4684,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.426679140781058</v>
+        <v>1.416430799186136</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.613472485122895</v>
@@ -4821,7 +4773,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.435370008888619</v>
+        <v>1.426908128260816</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.603834535634667</v>
@@ -4910,7 +4862,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.441053110004583</v>
+        <v>1.426986153511028</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.591724194352893</v>
@@ -4999,7 +4951,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.469852415026977</v>
+        <v>1.449045829962135</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.7272180144096</v>
@@ -5088,7 +5040,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.473836154397136</v>
+        <v>1.455715335295</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.61657597920475</v>
@@ -5177,7 +5129,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.481982001598263</v>
+        <v>1.461938132073869</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.683142402650244</v>
@@ -5266,7 +5218,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.505902595985476</v>
+        <v>1.485853360026688</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.780620799365233</v>
@@ -5355,7 +5307,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.510475305884805</v>
+        <v>1.49172536868984</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.664079268738605</v>
@@ -5444,7 +5396,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.518124902369923</v>
+        <v>1.497375404671709</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.362106924142243</v>
@@ -5533,7 +5485,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.585821910492258</v>
+        <v>1.561535651648755</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.402470200341956</v>
@@ -5622,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.590687415991948</v>
+        <v>1.569109735740491</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.788877749503814</v>
@@ -5711,7 +5663,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.589822163689404</v>
+        <v>1.572661536652073</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.723387049390964</v>
@@ -5800,7 +5752,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.607846967128532</v>
+        <v>1.589418758288669</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.677320461318385</v>
@@ -5889,7 +5841,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.64144504719015</v>
+        <v>1.621364440818893</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.533334579280135</v>
@@ -5978,7 +5930,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.660422699797586</v>
+        <v>1.649649328527423</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.601144330216876</v>
@@ -6067,7 +6019,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.730511498452083</v>
+        <v>1.713717072577996</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.863075510769597</v>
@@ -6156,7 +6108,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.735592321619841</v>
+        <v>1.72113494579064</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.459779022577254</v>
@@ -6245,7 +6197,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.737484743507748</v>
+        <v>1.729783104000075</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.763043609004454</v>
@@ -6334,7 +6286,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.754816816158005</v>
+        <v>1.751426996662001</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.802347764079804</v>
@@ -6423,7 +6375,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.757439306902131</v>
+        <v>1.75339221785212</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.981430056365771</v>
@@ -6512,7 +6464,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.759654967964583</v>
+        <v>1.755673202708131</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.506550654555866</v>
@@ -6601,7 +6553,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.769533957694027</v>
+        <v>1.766901580246123</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.854529777203442</v>
@@ -6690,7 +6642,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.770049739809413</v>
+        <v>1.764330619409106</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.833268346584751</v>
@@ -6779,7 +6731,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.768324402617076</v>
+        <v>1.761625487437262</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.16509410434205</v>
@@ -6868,7 +6820,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.77385379548274</v>
+        <v>1.762751516841398</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.435533849641962</v>
@@ -6957,7 +6909,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.774519996467935</v>
+        <v>1.762421680735552</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.255352008028927</v>
@@ -7046,7 +6998,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.749934390201841</v>
+        <v>1.740615539885813</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.412148142849456</v>
@@ -7135,7 +7087,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.748630522718593</v>
+        <v>1.739152662721399</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.209038703890025</v>
@@ -7224,7 +7176,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.746467977529365</v>
+        <v>1.741141933615469</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.264594236901145</v>
@@ -7313,7 +7265,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.727330197778009</v>
+        <v>1.719254695686701</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.307945852664365</v>
@@ -7402,7 +7354,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.719793897664834</v>
+        <v>1.715460520257842</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.42319899900353</v>
@@ -7491,7 +7443,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.719965085995149</v>
+        <v>1.715282534585717</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.466532660645547</v>
@@ -7580,7 +7532,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.719818445018243</v>
+        <v>1.71576454046429</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.284797892848071</v>
@@ -7669,7 +7621,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.718014915104387</v>
+        <v>1.719073937856627</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.503706668348951</v>
@@ -7758,7 +7710,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.669629879250174</v>
+        <v>1.676064675251217</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.644900312711945</v>
@@ -7847,7 +7799,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.665094260364598</v>
+        <v>1.677672814804395</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.674088756782118</v>
@@ -7936,7 +7888,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.63737716085658</v>
+        <v>1.651895022012317</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.585475481991576</v>
@@ -8025,7 +7977,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.605467574180696</v>
+        <v>1.626007862351316</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.675853153207949</v>
@@ -8114,7 +8066,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.608829486825734</v>
+        <v>1.627423414379004</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.607091057405682</v>
@@ -8203,7 +8155,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.600657065084241</v>
+        <v>1.620028703182154</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.861674280843172</v>
@@ -8292,7 +8244,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.570377881483653</v>
+        <v>1.591775246770777</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.7911091267408</v>
@@ -8381,7 +8333,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.585928580803903</v>
+        <v>1.602596623408511</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.803935022930523</v>
@@ -8470,7 +8422,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.587475649705499</v>
+        <v>1.606451451550878</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.544161897231301</v>
@@ -8559,7 +8511,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.564563844365589</v>
+        <v>1.581493656343709</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.527247806060345</v>
@@ -8648,7 +8600,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.558267180291838</v>
+        <v>1.577008660340794</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.731749807406546</v>
@@ -8737,7 +8689,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.533189546037403</v>
+        <v>1.54738164231017</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.685116678473495</v>
@@ -8826,7 +8778,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.507723490309336</v>
+        <v>1.521765068128796</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.692937719226105</v>
@@ -8915,7 +8867,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.464025560491924</v>
+        <v>1.478457538012828</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.662012892546686</v>
@@ -9004,7 +8956,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.454440241532862</v>
+        <v>1.466799281601242</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.735458111470915</v>
@@ -9290,7 +9242,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.333852939873505</v>
+        <v>1.212756401612127</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.980443819323626</v>
@@ -9379,7 +9331,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.346961955401946</v>
+        <v>1.218227656962245</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.700930503719686</v>
@@ -9468,7 +9420,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.359880175160934</v>
+        <v>1.222130459699347</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.157965612621533</v>
@@ -9557,7 +9509,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.357309473754181</v>
+        <v>1.218272432509154</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.008963448152276</v>
@@ -9646,7 +9598,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.364526780314541</v>
+        <v>1.214236281935302</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.902075183499633</v>
@@ -9735,7 +9687,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.367460593680887</v>
+        <v>1.214378466502962</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.032915584615992</v>
@@ -9824,7 +9776,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.368248762181944</v>
+        <v>1.211088296310367</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.994361804731647</v>
@@ -9913,7 +9865,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.375086983826376</v>
+        <v>1.216017983596198</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.054203694126725</v>
@@ -10002,7 +9954,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.37297790617009</v>
+        <v>1.215646004776601</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.754820626532835</v>
@@ -10091,7 +10043,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.365349946218615</v>
+        <v>1.211791624837988</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.010060184320785</v>
@@ -10180,7 +10132,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.357664914821596</v>
+        <v>1.211342195530275</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.866566940526579</v>
@@ -10269,7 +10221,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.351532758810029</v>
+        <v>1.213034343262174</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.90110370904097</v>
@@ -10358,7 +10310,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.351951701536454</v>
+        <v>1.216561932728175</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.975907152071928</v>
@@ -10447,7 +10399,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.335166916163668</v>
+        <v>1.210224734634207</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.711916253590199</v>
@@ -10536,7 +10488,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.334958476404326</v>
+        <v>1.218341774971013</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.69124782701928</v>
@@ -10625,7 +10577,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.324465232704757</v>
+        <v>1.21762847542392</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.601566016260701</v>
@@ -10714,7 +10666,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.309073280954156</v>
+        <v>1.20819961924506</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.793372695853703</v>
@@ -10803,7 +10755,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.290588772242484</v>
+        <v>1.204568131461553</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.455181301305914</v>
@@ -10892,7 +10844,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.287686000204295</v>
+        <v>1.206238734145066</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.333488438641206</v>
@@ -10981,7 +10933,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.281972649895266</v>
+        <v>1.209969161371784</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.381932202623035</v>
@@ -11070,7 +11022,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.272804476777653</v>
+        <v>1.208996921431348</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.582476752062455</v>
@@ -11159,7 +11111,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.270263241565227</v>
+        <v>1.208503901479107</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.558755490986072</v>
@@ -11248,7 +11200,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.270834031760262</v>
+        <v>1.207779127342782</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.536298599682365</v>
@@ -11337,7 +11289,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.267201981701616</v>
+        <v>1.207882061362569</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.400572507359816</v>
@@ -11426,7 +11378,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.267285051555645</v>
+        <v>1.208828125234116</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.472909349788235</v>
@@ -11515,7 +11467,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.258585684938448</v>
+        <v>1.204367554543549</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.576102911957739</v>
@@ -11604,7 +11556,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.266720510137717</v>
+        <v>1.210811827726134</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.398281547830161</v>
@@ -11693,7 +11645,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.256682265680963</v>
+        <v>1.210704262661734</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.13471089034721</v>
@@ -11782,7 +11734,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.267785654803001</v>
+        <v>1.220684046810961</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.304375830379693</v>
@@ -11871,7 +11823,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.258838201706766</v>
+        <v>1.210701896082218</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.432746613239767</v>
@@ -11960,7 +11912,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.266009395460664</v>
+        <v>1.215105244619285</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.452484563468416</v>
@@ -12049,7 +12001,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.273099017587109</v>
+        <v>1.221536711179369</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.125957216336661</v>
@@ -12138,7 +12090,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.272456864933807</v>
+        <v>1.220321031021792</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.268864186820307</v>
@@ -12227,7 +12179,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.269862123076475</v>
+        <v>1.221363957063123</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.369188374018647</v>
@@ -12316,7 +12268,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.287835605676694</v>
+        <v>1.241841434653276</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.161338147973496</v>
@@ -12405,7 +12357,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.305222410801999</v>
+        <v>1.263593268704383</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.127590154285107</v>
@@ -12494,7 +12446,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.316689046731205</v>
+        <v>1.279340701184108</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.158438456057446</v>
@@ -12583,7 +12535,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.327911958269855</v>
+        <v>1.295980662885053</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.014904830512572</v>
@@ -12672,7 +12624,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.343780569968629</v>
+        <v>1.319902865704194</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.937996166458034</v>
@@ -12761,7 +12713,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.366480203854139</v>
+        <v>1.349459215441304</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.207342292749812</v>
@@ -12850,7 +12802,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.380717118367119</v>
+        <v>1.362646676675434</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.137131021888503</v>
@@ -12939,7 +12891,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.395669245132414</v>
+        <v>1.380636407088596</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.955782475200567</v>
@@ -13028,7 +12980,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.404588874517711</v>
+        <v>1.395175079579664</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.074800619243665</v>
@@ -13117,7 +13069,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.426541635951397</v>
+        <v>1.421281312208036</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.938871550555118</v>
@@ -13206,7 +13158,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.442827487984718</v>
+        <v>1.441639654392589</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.998517937036742</v>
@@ -13295,7 +13247,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.467595311700054</v>
+        <v>1.471879057782591</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.103962163837513</v>
@@ -13384,7 +13336,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.506635693367076</v>
+        <v>1.506536539802288</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.050074818141638</v>
@@ -13473,7 +13425,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.563538670444747</v>
+        <v>1.56160408517814</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.376650623221102</v>
@@ -13562,7 +13514,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.569042676150271</v>
+        <v>1.566553048743085</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.550197446196944</v>
@@ -13651,7 +13603,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.547405380538101</v>
+        <v>1.549699953504996</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.500598439768144</v>
@@ -13740,7 +13692,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.552589664205959</v>
+        <v>1.551855401556789</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.337604273568084</v>
@@ -14026,7 +13978,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.465091747356961</v>
+        <v>1.457893304103226</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.345352876292067</v>
@@ -14115,7 +14067,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.45745966876205</v>
+        <v>1.445230235279638</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.387048951189314</v>
@@ -14204,7 +14156,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.459817478343644</v>
+        <v>1.449301332137892</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.241509521159843</v>
@@ -14293,7 +14245,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.483295116226685</v>
+        <v>1.470449263391858</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.364142235702099</v>
@@ -14382,7 +14334,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.476254261827878</v>
+        <v>1.457385221580964</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.34575141307235</v>
@@ -14471,7 +14423,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.475463657525459</v>
+        <v>1.456772361648605</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.233610716736217</v>
@@ -14560,7 +14512,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.491741700323082</v>
+        <v>1.469965242979249</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.690160005213416</v>
@@ -14649,7 +14601,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.491174139444263</v>
+        <v>1.472347295594498</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.786127435899623</v>
@@ -14738,7 +14690,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.495650057569241</v>
+        <v>1.472387941695461</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.703314511171444</v>
@@ -14827,7 +14779,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.496355818687062</v>
+        <v>1.465709253355416</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.857531586313082</v>
@@ -14916,7 +14868,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.507005242239305</v>
+        <v>1.474217430102108</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.805269555330977</v>
@@ -15005,7 +14957,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.513308353000477</v>
+        <v>1.485480499444124</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.769236810649836</v>
@@ -15094,7 +15046,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.509980078713519</v>
+        <v>1.483212701198906</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.46060158561254</v>
@@ -15183,7 +15135,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.522242528434806</v>
+        <v>1.496433282905505</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.185289641523723</v>
@@ -15272,7 +15224,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.527988628723374</v>
+        <v>1.500221378774786</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.856458446346563</v>
@@ -15361,7 +15313,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.525306225408298</v>
+        <v>1.499198547615034</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.984137657148585</v>
@@ -15450,7 +15402,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.531197544237706</v>
+        <v>1.509730896383967</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.82116270482587</v>
@@ -15539,7 +15491,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.547085849534147</v>
+        <v>1.525655735333256</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.071674352941396</v>
@@ -15628,7 +15580,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.549276311199473</v>
+        <v>1.527000959695138</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.101199724856416</v>
@@ -15717,7 +15669,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.551604344782382</v>
+        <v>1.534376213783132</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.82889056572966</v>
@@ -15806,7 +15758,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.560766504913534</v>
+        <v>1.540538520367615</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.999952198015996</v>
@@ -15895,7 +15847,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.569765205640903</v>
+        <v>1.54772517606378</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.924200741959378</v>
@@ -15984,7 +15936,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.572836677820184</v>
+        <v>1.549878715226099</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.089530943961725</v>
@@ -16073,7 +16025,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.587230482573636</v>
+        <v>1.561094876525798</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.124007136228133</v>
@@ -16162,7 +16114,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.595198589248999</v>
+        <v>1.572610515926075</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.789367877147352</v>
@@ -16251,7 +16203,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.582298542531186</v>
+        <v>1.564723449183001</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.034661364066587</v>
@@ -16340,7 +16292,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.583164788574468</v>
+        <v>1.560906447519989</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.274304145108049</v>
@@ -16429,7 +16381,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.606086262794056</v>
+        <v>1.584309674016543</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.813566973984234</v>
@@ -16518,7 +16470,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.620968203329106</v>
+        <v>1.592695298820065</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.646982741862649</v>
@@ -16607,7 +16559,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.615638173522155</v>
+        <v>1.58656900094734</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.55538553408225</v>
@@ -16696,7 +16648,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.615338365167772</v>
+        <v>1.587213187719405</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.453552237074</v>
@@ -16785,7 +16737,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.607480796875091</v>
+        <v>1.57800022000919</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.605619251553582</v>
@@ -16874,7 +16826,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.601621217707768</v>
+        <v>1.571212492589903</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.339103081381515</v>
@@ -16963,7 +16915,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.594909982340493</v>
+        <v>1.569434249502528</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.268958385265567</v>
@@ -17052,7 +17004,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.58818352201131</v>
+        <v>1.568261864665802</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.752072483276438</v>
@@ -17141,7 +17093,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.582759578504292</v>
+        <v>1.565688596596353</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.732462952718631</v>
@@ -17230,7 +17182,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.563484421049084</v>
+        <v>1.55295512557036</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.701912714013068</v>
@@ -17319,7 +17271,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.558741773325679</v>
+        <v>1.54684044282682</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.589950920284555</v>
@@ -17408,7 +17360,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.544320117154593</v>
+        <v>1.539384122805791</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.554436585453443</v>
@@ -17497,7 +17449,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.537487400418263</v>
+        <v>1.52885624340524</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.517183940180102</v>
@@ -17586,7 +17538,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.540023674031998</v>
+        <v>1.529052467271965</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.635246864450993</v>
@@ -17675,7 +17627,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.540538558989679</v>
+        <v>1.527897795142739</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.573564072730166</v>
@@ -17764,7 +17716,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.535226861154515</v>
+        <v>1.517333308652493</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.585603299022763</v>
@@ -17853,7 +17805,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.535451638034659</v>
+        <v>1.513406095559368</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.566145939778129</v>
@@ -17942,7 +17894,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.538883684863765</v>
+        <v>1.522327233626171</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.525733726611809</v>
@@ -18031,7 +17983,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.536657183347535</v>
+        <v>1.522876449169355</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.633215172391499</v>
@@ -18120,7 +18072,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.546866401979289</v>
+        <v>1.530139157357208</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.689834741869202</v>
@@ -18209,7 +18161,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.556986602496501</v>
+        <v>1.537531855958813</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.507279219635801</v>
@@ -18298,7 +18250,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.551541627981727</v>
+        <v>1.529686101947013</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.664773672522767</v>
@@ -18387,7 +18339,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.55569012673842</v>
+        <v>1.536795059576658</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.834584338666009</v>
@@ -18476,7 +18428,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.56115013562146</v>
+        <v>1.53709322919005</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.57966136429456</v>
@@ -18762,7 +18714,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.607280297323412</v>
+        <v>1.56261541592779</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.546651391379049</v>
@@ -18851,7 +18803,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.607774982973009</v>
+        <v>1.562183707272735</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.517214101411017</v>
@@ -18940,7 +18892,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.62386074405969</v>
+        <v>1.568297670783971</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.023536343890753</v>
@@ -19029,7 +18981,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.620139563179362</v>
+        <v>1.565269340210996</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.003968584399745</v>
@@ -19118,7 +19070,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.612786145727088</v>
+        <v>1.550698288597846</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.03825415290371</v>
@@ -19207,7 +19159,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.605680426975721</v>
+        <v>1.541510708639268</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.15766790081513</v>
@@ -19296,7 +19248,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.604202118379369</v>
+        <v>1.544362411441575</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.141483793653191</v>
@@ -19385,7 +19337,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.600202555486037</v>
+        <v>1.540612612970807</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.608160324411854</v>
@@ -19474,7 +19426,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.617049001307082</v>
+        <v>1.55035598877062</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.56922578512069</v>
@@ -19563,7 +19515,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.622668441270821</v>
+        <v>1.554449006544641</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.06508674361126</v>
@@ -19652,7 +19604,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.632632357982792</v>
+        <v>1.567055334438852</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.971401213420453</v>
@@ -19741,7 +19693,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.627031339316782</v>
+        <v>1.564777870901415</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.968881261980846</v>
@@ -19830,7 +19782,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.627619494349186</v>
+        <v>1.5666699391731</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.608156636344459</v>
@@ -19919,7 +19871,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.626530543192154</v>
+        <v>1.570096090455706</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.240184687862342</v>
@@ -20008,7 +19960,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.63447432396643</v>
+        <v>1.582382662957498</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.489737354120631</v>
@@ -20097,7 +20049,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.641387921024624</v>
+        <v>1.592265403525737</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.347445866921008</v>
@@ -20186,7 +20138,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.642384534881381</v>
+        <v>1.589239887137104</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.528040828974472</v>
@@ -20275,7 +20227,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.642049408006986</v>
+        <v>1.587033570734958</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.121096893029848</v>
@@ -20364,7 +20316,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.656502032861659</v>
+        <v>1.600505244719796</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.670223636607517</v>
@@ -20453,7 +20405,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.666994892080638</v>
+        <v>1.612514961848716</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.422351595013797</v>
@@ -20542,7 +20494,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.662181257666487</v>
+        <v>1.606909955097944</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.372446267685809</v>
@@ -20631,7 +20583,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.657780857132387</v>
+        <v>1.59796912737247</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.292588575204172</v>
@@ -20720,7 +20672,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.663836317104328</v>
+        <v>1.605003514656133</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.201085967240139</v>
@@ -20809,7 +20761,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.661110825176225</v>
+        <v>1.613618979218194</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.520024344963822</v>
@@ -20898,7 +20850,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.655498310335199</v>
+        <v>1.602764263827634</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.362860932401673</v>
@@ -20987,7 +20939,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.648237374539266</v>
+        <v>1.59485392462455</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.731823029570542</v>
@@ -21076,7 +21028,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.648414828943517</v>
+        <v>1.587913871022199</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.617546277639639</v>
@@ -21165,7 +21117,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.639629661993406</v>
+        <v>1.579611507364062</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.746505182107994</v>
@@ -21254,7 +21206,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.630791386570095</v>
+        <v>1.561435523783774</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.618864595035125</v>
@@ -21343,7 +21295,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.60655512273752</v>
+        <v>1.542401493881547</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.423133439595539</v>
@@ -21432,7 +21384,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.601778602418671</v>
+        <v>1.538445721634433</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.305816845251798</v>
@@ -21521,7 +21473,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.595267071424823</v>
+        <v>1.533360957262326</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.460970577034736</v>
@@ -21610,7 +21562,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.591933457945611</v>
+        <v>1.535173379046403</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.548417756717487</v>
@@ -21699,7 +21651,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.577140300622655</v>
+        <v>1.532761283122657</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.272828999073377</v>
@@ -21788,7 +21740,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.578860077638217</v>
+        <v>1.538546925736304</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.495538895057626</v>
@@ -21877,7 +21829,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.581676219276192</v>
+        <v>1.544349541062141</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.103754751551167</v>
@@ -21966,7 +21918,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.587502733117918</v>
+        <v>1.550241424226156</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.154297941295478</v>
@@ -22055,7 +22007,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.58129989136829</v>
+        <v>1.539759114406142</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.134012690229792</v>
@@ -22144,7 +22096,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.582633858305086</v>
+        <v>1.538604365527996</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.764870571549004</v>
@@ -22233,7 +22185,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.582948123172517</v>
+        <v>1.548030990586722</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.269580304175993</v>
@@ -22322,7 +22274,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.586213659622786</v>
+        <v>1.54911366331048</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.205926026765898</v>
@@ -22411,7 +22363,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.590817230105242</v>
+        <v>1.545013460907222</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.127137703324153</v>
@@ -22500,7 +22452,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.580896763529628</v>
+        <v>1.542987301301179</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.563299244119208</v>
@@ -22589,7 +22541,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.583493188186933</v>
+        <v>1.547734361802401</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.872435652085191</v>
@@ -22678,7 +22630,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.588783861754743</v>
+        <v>1.546774294434228</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.655789830853848</v>
@@ -22767,7 +22719,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.583977070422407</v>
+        <v>1.549134870107354</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.718422478169235</v>
@@ -22856,7 +22808,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.589332905741125</v>
+        <v>1.554805093550788</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.214444474446882</v>
@@ -22945,7 +22897,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.590135735035445</v>
+        <v>1.553465444775395</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.864035830865713</v>
@@ -23034,7 +22986,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.588660930475905</v>
+        <v>1.545217001498477</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.214937912758116</v>
@@ -23123,7 +23075,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.574128299559447</v>
+        <v>1.530267198975174</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.014780072330704</v>
@@ -23212,7 +23164,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.572060051240043</v>
+        <v>1.534220258687091</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.057651532099916</v>
@@ -23498,7 +23450,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.33526024148695</v>
+        <v>1.32169089035496</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.838618059699764</v>
@@ -23587,7 +23539,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.329358648178647</v>
+        <v>1.313120935018578</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.828887944230022</v>
@@ -23676,7 +23628,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.415785122874084</v>
+        <v>1.394489273777012</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.233082971830773</v>
@@ -23765,7 +23717,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.418148774301766</v>
+        <v>1.387437717486174</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.805267219299027</v>
@@ -23854,7 +23806,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.405094696403487</v>
+        <v>1.373917711482411</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.687471161912825</v>
@@ -23943,7 +23895,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.396359319516579</v>
+        <v>1.366665739309203</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.590258652511753</v>
@@ -24032,7 +23984,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.39349661189973</v>
+        <v>1.363827590827823</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.692584055385846</v>
@@ -24121,7 +24073,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.391882594357006</v>
+        <v>1.365216657218005</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.696013883108007</v>
@@ -24210,7 +24162,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.391061534633874</v>
+        <v>1.36355104843995</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.569336546428636</v>
@@ -24299,7 +24251,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.400560679249646</v>
+        <v>1.372335811234607</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.4027804888336</v>
@@ -24388,7 +24340,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.402047002139953</v>
+        <v>1.373616780418856</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.895590203925807</v>
@@ -24477,7 +24429,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.39821726718301</v>
+        <v>1.367038942600537</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.753643623978182</v>
@@ -24566,7 +24518,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.39076214522798</v>
+        <v>1.359283450238947</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.918814464944981</v>
@@ -24655,7 +24607,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.380671213857133</v>
+        <v>1.352864966897793</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.53560975372458</v>
@@ -24744,7 +24696,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.379886035293073</v>
+        <v>1.351114158310015</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.540467722042791</v>
@@ -24833,7 +24785,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.375252635321731</v>
+        <v>1.348220845199569</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.517315670601377</v>
@@ -24922,7 +24874,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.372874542760226</v>
+        <v>1.345201327948339</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.588064286298714</v>
@@ -25011,7 +24963,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.36078436105161</v>
+        <v>1.336702685884134</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.429216524669377</v>
@@ -25100,7 +25052,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.357857135737094</v>
+        <v>1.335995315817124</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.632547720605889</v>
@@ -25189,7 +25141,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.338797898378858</v>
+        <v>1.321719584047933</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.483109590323505</v>
@@ -25278,7 +25230,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.327126143081559</v>
+        <v>1.312130244128309</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.604111160451226</v>
@@ -25367,7 +25319,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.313087981753122</v>
+        <v>1.300829226991052</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.699575627787916</v>
@@ -25456,7 +25408,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.293558930707101</v>
+        <v>1.280754051582609</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.663731298874419</v>
@@ -25545,7 +25497,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.275094263530481</v>
+        <v>1.271851294640505</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.604020817365687</v>
@@ -25634,7 +25586,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.259361792489984</v>
+        <v>1.253842678834949</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.51994141278617</v>
@@ -25723,7 +25675,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.241752658828138</v>
+        <v>1.239245261773707</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.637489741516108</v>
@@ -25812,7 +25764,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.227905539973901</v>
+        <v>1.230629374930255</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.629073956683687</v>
@@ -25901,7 +25853,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.211134798479714</v>
+        <v>1.217719437506018</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.403968652186389</v>
@@ -25990,7 +25942,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.204012557000697</v>
+        <v>1.207941804671089</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.516519078297839</v>
@@ -26079,7 +26031,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.192809249169354</v>
+        <v>1.193316853477248</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.489542950976105</v>
@@ -26168,7 +26120,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.181656425037001</v>
+        <v>1.178036700964378</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.639650487116676</v>
@@ -26257,7 +26209,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.174347861464964</v>
+        <v>1.172933531334393</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.613232378883869</v>
@@ -26346,7 +26298,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.168786996317128</v>
+        <v>1.161716131958441</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.488817854337293</v>
@@ -26435,7 +26387,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.161904474176668</v>
+        <v>1.153883405120322</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.474345017731741</v>
@@ -26524,7 +26476,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.155904333166505</v>
+        <v>1.146496052228388</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.547108319846604</v>
@@ -26613,7 +26565,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.152458954502035</v>
+        <v>1.142048353419574</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.624682711160303</v>
@@ -26702,7 +26654,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.152295173731008</v>
+        <v>1.141235729764305</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.489101668116161</v>
@@ -26791,7 +26743,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.147054199249175</v>
+        <v>1.136725755047284</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.429210798896438</v>
@@ -26880,7 +26832,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.141483598042228</v>
+        <v>1.134981036001623</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.506730257279862</v>
@@ -26969,7 +26921,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.133728074748258</v>
+        <v>1.125492735017338</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.261124223583521</v>
@@ -27058,7 +27010,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.133203774446567</v>
+        <v>1.127050143030776</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.241942663366358</v>
@@ -27147,7 +27099,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.140898749428285</v>
+        <v>1.128541510139829</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.246950270696013</v>
@@ -27236,7 +27188,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.126871668929071</v>
+        <v>1.118235509097534</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.445320877569479</v>
@@ -27325,7 +27277,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.128935355630506</v>
+        <v>1.121406597451237</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.321000221191482</v>
@@ -27414,7 +27366,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.129323158937984</v>
+        <v>1.123598737494272</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.362217326455649</v>
@@ -27503,7 +27455,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.130886659393968</v>
+        <v>1.129548334625231</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.366568879427251</v>
@@ -27592,7 +27544,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.136609241744706</v>
+        <v>1.133374106831862</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.295420910644047</v>
@@ -27681,7 +27633,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.144097159347256</v>
+        <v>1.145760628713991</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.263063071299143</v>
@@ -27770,7 +27722,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.146647343310751</v>
+        <v>1.147749490964899</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.345853281222307</v>
@@ -27859,7 +27811,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.151221786162994</v>
+        <v>1.15339271970774</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.208358386253339</v>
@@ -27948,7 +27900,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.154902156505389</v>
+        <v>1.159189547506323</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.124118390001057</v>
@@ -28234,7 +28186,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.423395113112766</v>
+        <v>1.431284160097506</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.213313805195295</v>
@@ -28323,7 +28275,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.42694516232675</v>
+        <v>1.43258192095336</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.168961740125577</v>
@@ -28412,7 +28364,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.402703726418185</v>
+        <v>1.404206642355106</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.223721550255499</v>
@@ -28501,7 +28453,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.40291810114896</v>
+        <v>1.404342190557338</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.270762615345121</v>
@@ -28590,7 +28542,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.40915891040069</v>
+        <v>1.40121887027306</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.172140948589765</v>
@@ -28679,7 +28631,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.418111049495017</v>
+        <v>1.408428368225534</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.134717106337265</v>
@@ -28768,7 +28720,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.385114713953627</v>
+        <v>1.373004002822582</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.194244343781043</v>
@@ -28857,7 +28809,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.370357586305863</v>
+        <v>1.364294294408003</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.191118573417419</v>
@@ -28946,7 +28898,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.415208214086701</v>
+        <v>1.401530950143184</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.190529210424753</v>
@@ -29035,7 +28987,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.425540573307819</v>
+        <v>1.410073524847808</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.064489340709985</v>
@@ -29124,7 +29076,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.451108006600048</v>
+        <v>1.433431055259437</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.142286959095599</v>
@@ -29213,7 +29165,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.470358344105675</v>
+        <v>1.452557180371821</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.184270000252138</v>
@@ -29302,7 +29254,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.471559709875559</v>
+        <v>1.456316528654183</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.177283792251689</v>
@@ -29391,7 +29343,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.472307011916738</v>
+        <v>1.459776079842534</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.184491900024374</v>
@@ -29480,7 +29432,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.476517295722281</v>
+        <v>1.467356621815155</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.141750567334865</v>
@@ -29569,7 +29521,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.484873598537479</v>
+        <v>1.478125838454792</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.227088778989075</v>
@@ -29658,7 +29610,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.478962157917977</v>
+        <v>1.477402712726452</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.1522587389791</v>
@@ -29747,7 +29699,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.514201331397077</v>
+        <v>1.51449754546821</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.114830750734484</v>
@@ -29836,7 +29788,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.529413426800255</v>
+        <v>1.529830304789251</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.265684655188687</v>
@@ -29925,7 +29877,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.535377822814858</v>
+        <v>1.535525704064197</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.197494907839364</v>
@@ -30014,7 +29966,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.5438363356669</v>
+        <v>1.544895080151253</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.222291734462345</v>
@@ -30103,7 +30055,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.620723673637348</v>
+        <v>1.613075695995596</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.385242108469493</v>
@@ -30192,7 +30144,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.653715573394163</v>
+        <v>1.644067023793101</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.794155567831791</v>
@@ -30281,7 +30233,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.637535992465015</v>
+        <v>1.634745561559044</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.717515534171615</v>
@@ -30370,7 +30322,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.633724650564067</v>
+        <v>1.629961358176901</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.607345146117948</v>
@@ -30459,7 +30411,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.555978407667374</v>
+        <v>1.555909401861759</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.090390125496158</v>
@@ -30548,7 +30500,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.537489129312745</v>
+        <v>1.545779724434555</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.074519365523121</v>
@@ -30637,7 +30589,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.551220792167136</v>
+        <v>1.554260835799784</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.17989168458364</v>
@@ -30726,7 +30678,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.510846301835304</v>
+        <v>1.518586144975321</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.144006927495058</v>
@@ -30815,7 +30767,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.505524502537964</v>
+        <v>1.51573780734629</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.065765959348502</v>
@@ -30904,7 +30856,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.511454618318371</v>
+        <v>1.518130895419874</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.964978851061997</v>
@@ -30993,7 +30945,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.514086710750187</v>
+        <v>1.519313220694627</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.10053810930261</v>
@@ -31082,7 +31034,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.506272953975882</v>
+        <v>1.513644407790166</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.129150140745856</v>
@@ -31171,7 +31123,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.442273258930999</v>
+        <v>1.453746374236062</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.115421015453197</v>
@@ -31260,7 +31212,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.435174524396026</v>
+        <v>1.454631895755438</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.130165008318808</v>
@@ -31349,7 +31301,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.427869295676492</v>
+        <v>1.451174110064035</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.098067386743395</v>
@@ -31438,7 +31390,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.420901338978264</v>
+        <v>1.444337202021519</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.15388827189669</v>
@@ -31527,7 +31479,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.416489858930884</v>
+        <v>1.438047083109788</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.154602017334626</v>
@@ -31616,7 +31568,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.418973865077465</v>
+        <v>1.439818649894354</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.158792578686586</v>
@@ -31705,7 +31657,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.416100661018789</v>
+        <v>1.441226880283303</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.213330717188917</v>
@@ -31794,7 +31746,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.457778950287821</v>
+        <v>1.479026116974483</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.186085812043395</v>
@@ -31883,7 +31835,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.448332495764541</v>
+        <v>1.4696140067166</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.117499741394259</v>
@@ -31972,7 +31924,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.442438278975103</v>
+        <v>1.462983266073017</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.133796186303285</v>
@@ -32061,7 +32013,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.478605808477803</v>
+        <v>1.492827977047533</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.184256371013708</v>
@@ -32150,7 +32102,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.481144208546723</v>
+        <v>1.492280236132623</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.120025450424906</v>
@@ -32239,7 +32191,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.474926544921158</v>
+        <v>1.487744314136761</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.062025527332068</v>
@@ -32328,7 +32280,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.474534676606662</v>
+        <v>1.487444158406817</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.093679685031707</v>
@@ -32417,7 +32369,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.473975350036476</v>
+        <v>1.485509160303994</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.033503746310858</v>
@@ -32506,7 +32458,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.54034515828421</v>
+        <v>1.542907356281682</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.811599800340586</v>
@@ -32595,7 +32547,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.524637860360068</v>
+        <v>1.520974158862784</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.68963922239557</v>
@@ -32684,7 +32636,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.52187215133028</v>
+        <v>1.518650608165286</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.608535777057631</v>
